--- a/data/trans_bre/P25_11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>7,43</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29,87%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>158,98%</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>426,22%</t>
+          <t>51,65%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>426,27%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88,52%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,12</t>
+          <t>-2,87; 4,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 6,82</t>
+          <t>-5,59; 6,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,73</t>
+          <t>-5,23; 4,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,91</t>
+          <t>-9,07; 7,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-99,05; 567,99</t>
+          <t>1,93; 13,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 1530,18</t>
+          <t>-1,9; 8,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-72,12; 621,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; —</t>
+          <t>-77,58; 687,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-82,07; 563,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-67,19; 155,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-40,49; 613,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-0,32</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-34,86%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>-41,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>83,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-24,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>133,26%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 2,2</t>
+          <t>-7,51; 1,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,84</t>
+          <t>-1,68; 5,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 3,49</t>
+          <t>-10,85; 3,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 6,2</t>
+          <t>0,74; 11,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,2; 86,78</t>
+          <t>-7,29; 6,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 533,82</t>
+          <t>-3,32; 9,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,55; 171,04</t>
+          <t>-81,79; 67,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 150,03</t>
+          <t>-53,37; 440,88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-90,32; 169,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 466,73</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-61,95; 137,16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,48; 290,62</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>102,16%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>331,33%</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>139,81%</t>
+          <t>61,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>131,63%</t>
+          <t>350,1%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>120,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>131,68%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50,59%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 11,75</t>
+          <t>-1,91; 7,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,34</t>
+          <t>3,78; 11,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 8,54</t>
+          <t>-3,68; 8,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,39</t>
+          <t>1,44; 10,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 352,37</t>
+          <t>1,95; 12,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,38; 1018,73</t>
+          <t>-1,53; 11,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 578,65</t>
+          <t>-26,95; 237,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 349,06</t>
+          <t>81,59; 1129,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,73; 533,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 341,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 380,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; 166,7</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>9,26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>11,86</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>111,83%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>121,69%</t>
+          <t>109,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>181,6%</t>
+          <t>88,14%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>120,18%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>108,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>181,57%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 12,43</t>
+          <t>1,35; 12,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,31</t>
+          <t>1,84; 11,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 13,19</t>
+          <t>3,85; 13,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 17,54</t>
+          <t>3,34; 14,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 297,0</t>
+          <t>5,38; 17,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,43; 216,41</t>
+          <t>0,69; 12,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,57; 273,57</t>
+          <t>4,84; 296,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,85; 420,49</t>
+          <t>15,94; 215,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39,87; 266,98</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28,89; 233,64</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53,63; 452,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 223,19</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>12,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>13,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>202,97%</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>274,15%</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>194,58%</t>
+          <t>176,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>264,13%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>186,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>150,97%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>75,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 16,48</t>
+          <t>4,26; 14,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 18,17</t>
+          <t>7,93; 18,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 16,41</t>
+          <t>5,44; 16,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 16,36</t>
+          <t>6,15; 20,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,36; 545,62</t>
+          <t>1,62; 16,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>106,84; 651,85</t>
+          <t>-3,84; 12,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,43; 429,53</t>
+          <t>48,51; 495,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,17; 178,73</t>
+          <t>101,91; 545,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>60,58; 398,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49,26; 348,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 195,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-16,83; 81,2</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>13,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>9,41</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>18,08</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>70,31%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>26,04</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>221,35%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>595,14%</t>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>247,93%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>129,19%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>595,71%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>584,34%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 13,42</t>
+          <t>-2,1; 14,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 10,19</t>
+          <t>-6,89; 10,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 19,67</t>
+          <t>6,9; 20,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,84; 26,81</t>
+          <t>1,65; 17,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 288,37</t>
+          <t>10,82; 25,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 120,81</t>
+          <t>18,3; 34,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,34; 617,39</t>
+          <t>-23,3; 264,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>147,96; 2143,49</t>
+          <t>-36,1; 138,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>61,64; 676,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 439,3</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>165,22; 1795,66</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>220,39; 1448,33</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>9,44</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>89,62%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>112,65%</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>132,98%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>151,46%</t>
+          <t>111,6%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>125,29%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>105,87%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>151,44%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>101,53%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,3</t>
+          <t>2,06; 6,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,96</t>
+          <t>3,58; 8,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,71</t>
+          <t>3,78; 8,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,53</t>
+          <t>4,83; 10,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,34; 168,81</t>
+          <t>6,49; 12,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,21; 193,64</t>
+          <t>5,89; 12,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55,93; 219,84</t>
+          <t>27,07; 147,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>88,48; 246,4</t>
+          <t>48,56; 189,33</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>52,65; 210,76</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>53,66; 169,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>85,34; 235,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>58,07; 165,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
